--- a/src/assets/templates/student.xlsx
+++ b/src/assets/templates/student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tenjin-hospitals\web\tenjin-course\src\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2910F835-F03B-4E0B-84BE-7638C52D427B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA15B809-7D7F-465B-81EF-50EE017259C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{670BDB9B-2BD5-4C83-8D0D-8250BA60BFCD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{670BDB9B-2BD5-4C83-8D0D-8250BA60BFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Mã</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Chuyên môn</t>
+  </si>
+  <si>
+    <t>Mã lớp</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BF4948-EE55-4DBB-B107-8EACAABAD39A}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +479,7 @@
     <col min="11" max="11" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,6 +511,9 @@
         <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
